--- a/Kola_bay_Mussel_dynamics/R_calc_Kola_dynamics/Data/data_history.xlsx
+++ b/Kola_bay_Mussel_dynamics/R_calc_Kola_dynamics/Data/data_history.xlsx
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3769,7 +3769,7 @@
         <v>2018</v>
       </c>
       <c r="E96">
-        <v>1526</v>
+        <v>1.526</v>
       </c>
       <c r="F96">
         <v>69.0884082</v>
@@ -3795,7 +3795,7 @@
         <v>2020</v>
       </c>
       <c r="E97">
-        <v>977</v>
+        <v>0.977</v>
       </c>
       <c r="F97">
         <v>69.0884082</v>
